--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -5,15 +5,24 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05506EAD-1844-4959-AF9E-F691D13849B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322A3669-520E-47B9-821F-7CEC391960D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="3180" windowWidth="21600" windowHeight="11295" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="7305" yWindow="975" windowWidth="21600" windowHeight="11295" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="옷 수정" sheetId="10" r:id="rId2"/>
+    <sheet name="옷 삭제" sheetId="9" r:id="rId3"/>
+    <sheet name="옷 등록" sheetId="8" r:id="rId4"/>
+    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId5"/>
+    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId6"/>
+    <sheet name="전체 옷 조회" sheetId="5" r:id="rId7"/>
+    <sheet name="회원정보조회" sheetId="4" r:id="rId8"/>
+    <sheet name="로그인" sheetId="3" r:id="rId9"/>
+    <sheet name="회원가입" sheetId="2" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="98">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/users/:userIddx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보조회 api</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,6 +99,676 @@
   </si>
   <si>
     <t>전체 옷 조회 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 옷 정보 조회 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>즐겨찾기된 옷 조회 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 등록 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 삭제 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 수정 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/info/:userIdx?clthIdx=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/bookmakr/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>patch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths:/userIdx?clthIdx=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths:/userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Response Parameters</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>isSuccess</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원가입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gana0303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최가나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwForCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0303gana</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입에 성공했습니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>로그인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>userIdx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>회원정보조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>numOfClth</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>clthIdx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clthImgUrl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">개별 옷 정보 조회 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bookmark</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>category</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>season</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"spring"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">즐겨찾기된 옷 조회 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">옷 등록 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 등록에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">옷 삭제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 삭제에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">옷 수정 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 수정에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체 옷 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clthIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>셔츠"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clthImgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>티"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fall"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"셔츠"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -101,7 +776,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,8 +792,44 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +848,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,27 +884,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -192,12 +906,58 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,135 +1269,190 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B3:E15"/>
+  <dimension ref="B3:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="3">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="2:5">
+      <c r="B6" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    <row r="11" spans="2:5">
+      <c r="B11" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -647,4 +1462,2527 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" ht="25.5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="36.75">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="18"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="17"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="17"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="17"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" s="17"/>
+      <c r="D27" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="17"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" s="17"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" s="17"/>
+      <c r="D26" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
+  <dimension ref="A1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" ht="18" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" customHeight="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="15"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="17.25" customHeight="1">
+      <c r="C27" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="C30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="C24" s="17"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="18"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="15"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="18">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A1" s="5"/>
+      <c r="B1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5"/>
+      <c r="B8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="15"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322A3669-520E-47B9-821F-7CEC391960D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10679E04-5F4B-497D-8656-B79F27889141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="975" windowWidth="21600" windowHeight="11295" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="8" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -903,9 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -953,6 +950,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1296,12 +1296,12 @@
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
     </row>
     <row r="5" spans="2:5">
       <c r="B5" s="2">
@@ -1310,7 +1310,7 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -1346,12 +1346,12 @@
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="2:5">
       <c r="B9" s="2">
@@ -1446,13 +1446,13 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="19"/>
+      <c r="D19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1482,269 +1482,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="25.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="13" t="b">
+      <c r="E18" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
+      <c r="A24" s="4"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
+      <c r="A25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
+      <c r="A26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="5"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="5"/>
+      <c r="A28" s="4"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="5"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1766,269 +1767,269 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="12" t="b">
+      <c r="E11" s="11" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="13" t="b">
+      <c r="E21" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2056,259 +2057,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="25.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="13" t="b">
+      <c r="E21" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2337,266 +2338,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="5" t="b">
+      <c r="E12" s="4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" ht="25.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="10" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="13" t="b">
+      <c r="E18" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="36.75">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="E21" s="14"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="18"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="17"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="17"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="17"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" s="17"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="C26" s="17"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="C27" s="17"/>
-      <c r="D27" s="5"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2622,253 +2623,253 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="25.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="13" t="b">
+      <c r="E17" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="17"/>
-      <c r="D24" s="5"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="C25" s="17"/>
-      <c r="D25" s="5"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="C26" s="17"/>
-      <c r="D26" s="5"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2894,289 +2895,289 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="10" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="13" t="b">
+      <c r="E21" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="18" customHeight="1">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5" t="s">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="E24" s="14"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="15"/>
+      <c r="E25" s="14"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="17" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="18">
+      <c r="E26" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E28" t="b">
@@ -3184,10 +3185,10 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E29" t="s">
@@ -3195,10 +3196,10 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E30" t="s">
@@ -3229,246 +3230,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="13" t="b">
+      <c r="E17" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="C24" s="17"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="18"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3494,250 +3495,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="11"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="10" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="10" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="13" t="b">
+      <c r="E17" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="E20" s="14"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E21" s="15"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="17" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="17" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="17">
         <v>5</v>
       </c>
     </row>
@@ -3751,8 +3752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3765,216 +3766,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="10" t="s">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="13" t="b">
+      <c r="E16" s="12" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="E19" s="14"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="15"/>
+      <c r="E20" s="14"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="17" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E21">

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10679E04-5F4B-497D-8656-B79F27889141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E767917-2BCD-4A4E-A634-B94B7CB588FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" firstSheet="6" activeTab="8" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28695" yWindow="-4380" windowWidth="16410" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="옷 수정" sheetId="10" r:id="rId2"/>
-    <sheet name="옷 삭제" sheetId="9" r:id="rId3"/>
-    <sheet name="옷 등록" sheetId="8" r:id="rId4"/>
-    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId5"/>
-    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId6"/>
-    <sheet name="전체 옷 조회" sheetId="5" r:id="rId7"/>
-    <sheet name="회원정보조회" sheetId="4" r:id="rId8"/>
-    <sheet name="로그인" sheetId="3" r:id="rId9"/>
-    <sheet name="회원가입" sheetId="2" r:id="rId10"/>
+    <sheet name="회원가입" sheetId="2" r:id="rId2"/>
+    <sheet name="로그인" sheetId="3" r:id="rId3"/>
+    <sheet name="회원정보조회" sheetId="4" r:id="rId4"/>
+    <sheet name="옷 수정" sheetId="10" r:id="rId5"/>
+    <sheet name="옷 삭제" sheetId="9" r:id="rId6"/>
+    <sheet name="옷 등록" sheetId="8" r:id="rId7"/>
+    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId8"/>
+    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId9"/>
+    <sheet name="전체 옷 조회" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="99">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +769,10 @@
   </si>
   <si>
     <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/:userIdx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1271,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1431,7 +1435,7 @@
         <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1465,6 +1469,271 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" customHeight="1">
+      <c r="C24" s="16"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -1749,7 +2018,518 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" ht="25.5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="18" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.25" customHeight="1">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="17">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2039,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -2319,12 +3099,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2605,7 +3385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -2877,7 +3657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E30"/>
   <sheetViews>
@@ -3210,780 +3990,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="C24" s="16"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E22" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="17">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E767917-2BCD-4A4E-A634-B94B7CB588FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CB9375-7267-454B-9CD7-F7ADB954D685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="-4380" windowWidth="16410" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="845" activeTab="2" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1275,14 +1275,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5">
@@ -1476,13 +1476,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -1621,7 +1621,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -1730,6 +1730,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1737,17 +1738,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1903,7 +1904,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -1969,7 +1970,7 @@
       <c r="B21" s="4"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="27">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -2022,17 +2023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -2162,7 +2163,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5">
+    <row r="14" spans="1:5" ht="26.4">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
         <v>35</v>
@@ -2266,13 +2267,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
@@ -2411,7 +2412,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -2537,13 +2538,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2734,7 +2735,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5">
+    <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -2827,12 +2828,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2845,7 +2846,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3014,7 +3015,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5">
+    <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -3107,14 +3108,14 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3276,7 +3277,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -3393,16 +3394,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
+    <row r="1" spans="1:5" ht="28.2">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>72</v>
@@ -3411,7 +3412,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -3538,7 +3539,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -3665,11 +3666,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CD9E18-B6E9-4740-A091-9355D0EAA120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA304F-ADFE-45B2-B96F-71C4D97C3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="103">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -785,6 +785,10 @@
   </si>
   <si>
     <t>/clths/bookmark/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -900,6 +904,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -968,6 +981,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1285,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1297,7 +1316,7 @@
     <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:6">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1311,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:6">
       <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1338,7 @@
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1332,8 +1351,11 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="F5" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="2">
         <v>1.2</v>
       </c>
@@ -1346,8 +1368,11 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
+      <c r="F6" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
@@ -1360,8 +1385,11 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="2:5">
+      <c r="F7" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
       <c r="B8" s="19" t="s">
         <v>11</v>
       </c>
@@ -1369,7 +1397,7 @@
       <c r="D8" s="19"/>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:6">
       <c r="B9" s="2">
         <v>2.1</v>
       </c>
@@ -1382,8 +1410,11 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="2:5">
+      <c r="F9" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
       <c r="B10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1396,8 +1427,11 @@
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="2:5">
+      <c r="F10" s="21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
       <c r="B11" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -1411,7 +1445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:6">
       <c r="B12" s="2">
         <v>2.4</v>
       </c>
@@ -1425,7 +1459,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:6">
       <c r="B13" s="2">
         <v>2.5</v>
       </c>
@@ -1439,7 +1473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:6">
       <c r="B14" s="2">
         <v>2.6</v>
       </c>
@@ -1453,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:6">
       <c r="B15" s="2">
         <v>2.7</v>
       </c>
@@ -1461,7 +1495,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:6">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAA304F-ADFE-45B2-B96F-71C4D97C3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF7EC1-10AD-470B-80D1-7B3203530E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="18900" windowHeight="11055" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -881,7 +881,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -902,15 +902,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -980,14 +971,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1304,10 +1295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B3:F19"/>
+  <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1316,7 +1307,7 @@
     <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1330,15 +1321,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:6">
-      <c r="B4" s="19" t="s">
+    <row r="4" spans="2:7">
+      <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="2:6">
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="2">
         <v>1.1000000000000001</v>
       </c>
@@ -1351,11 +1342,12 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="6" spans="2:6">
+      <c r="G5" s="21"/>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="2">
         <v>1.2</v>
       </c>
@@ -1368,11 +1360,12 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="7" spans="2:6">
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="2">
         <v>1.3</v>
       </c>
@@ -1385,19 +1378,20 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" s="19" t="s">
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="2:6">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="2">
         <v>2.1</v>
       </c>
@@ -1410,11 +1404,11 @@
       <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:7">
       <c r="B10" s="2">
         <v>2.2000000000000002</v>
       </c>
@@ -1427,11 +1421,11 @@
       <c r="E10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:7">
       <c r="B11" s="2">
         <v>2.2999999999999998</v>
       </c>
@@ -1445,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:7">
       <c r="B12" s="2">
         <v>2.4</v>
       </c>
@@ -1459,7 +1453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:7">
       <c r="B13" s="2">
         <v>2.5</v>
       </c>
@@ -1473,7 +1467,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:7">
       <c r="B14" s="2">
         <v>2.6</v>
       </c>
@@ -1487,7 +1481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:7">
       <c r="B15" s="2">
         <v>2.7</v>
       </c>
@@ -1495,7 +1489,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:7">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAF7EC1-10AD-470B-80D1-7B3203530E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78160E82-4C50-453B-AC1D-0BC1F370DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="103">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -974,11 +974,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1298,13 +1298,13 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="30.375" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="30.3984375" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -1322,12 +1322,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
@@ -1345,7 +1345,7 @@
       <c r="F5" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G5" s="21"/>
+      <c r="G5" s="20"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
@@ -1363,7 +1363,7 @@
       <c r="F6" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G6" s="21"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
@@ -1381,15 +1381,15 @@
       <c r="F7" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="G7" s="21"/>
+      <c r="G7" s="20"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2">
@@ -1438,6 +1438,9 @@
       <c r="E11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="F11" s="19" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="2">
@@ -1451,6 +1454,9 @@
       </c>
       <c r="E12" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -1516,13 +1522,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" customWidth="1"/>
+    <col min="5" max="5" width="16.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -1661,7 +1667,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -1782,13 +1788,13 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1944,7 +1950,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -2010,7 +2016,7 @@
       <c r="B21" s="4"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="27">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -2067,13 +2073,13 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -2203,7 +2209,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="25.5">
+    <row r="14" spans="1:5" ht="26.4">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
         <v>35</v>
@@ -2307,13 +2313,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
+    <col min="5" max="5" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
@@ -2452,7 +2458,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -2578,13 +2584,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" customWidth="1"/>
+    <col min="5" max="5" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2775,7 +2781,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5">
+    <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -2868,12 +2874,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2886,7 +2892,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3055,7 +3061,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5">
+    <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -3145,17 +3151,17 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3317,7 +3323,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -3423,6 +3429,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3434,16 +3441,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
+    <row r="1" spans="1:5" ht="28.2">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>72</v>
@@ -3452,7 +3459,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -3579,7 +3586,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -3706,11 +3713,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="17.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78160E82-4C50-453B-AC1D-0BC1F370DBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48BAAA-ABCA-4D7C-976D-6277E3194DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
@@ -1298,7 +1298,7 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E48BAAA-ABCA-4D7C-976D-6277E3194DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44940675-3411-4035-A84F-9B39451B6375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="104">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -789,6 +789,10 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/:userIdx?clthIdx=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1298,7 +1302,7 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1467,7 +1471,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>17</v>
@@ -1511,6 +1515,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44940675-3411-4035-A84F-9B39451B6375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4B9760-CC00-4CF9-80E6-FED08813351D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1302,13 +1302,13 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="30.3984375" customWidth="1"/>
-    <col min="5" max="5" width="24.59765625" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+    <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -1527,13 +1527,13 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" customWidth="1"/>
-    <col min="3" max="3" width="12.69921875" customWidth="1"/>
-    <col min="4" max="4" width="11.69921875" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -1672,7 +1672,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -1793,13 +1793,13 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="19.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1955,7 +1955,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="26.4">
+    <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -2021,7 +2021,7 @@
       <c r="B21" s="4"/>
       <c r="E21" s="13"/>
     </row>
-    <row r="22" spans="1:5" ht="27">
+    <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
@@ -2078,13 +2078,13 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" customWidth="1"/>
-    <col min="3" max="3" width="14.8984375" customWidth="1"/>
-    <col min="4" max="4" width="11.3984375" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -2214,7 +2214,7 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="26.4">
+    <row r="14" spans="1:5" ht="25.5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
         <v>35</v>
@@ -2318,13 +2318,13 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.69921875" customWidth="1"/>
-    <col min="2" max="2" width="14.3984375" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" customWidth="1"/>
-    <col min="5" max="5" width="17.3984375" customWidth="1"/>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="14.375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="5" max="5" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18" customHeight="1">
@@ -2463,7 +2463,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -2589,13 +2589,13 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2786,7 +2786,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="26.4">
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -2879,12 +2879,12 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.3984375" customWidth="1"/>
-    <col min="2" max="2" width="12.59765625" customWidth="1"/>
-    <col min="3" max="3" width="11.3984375" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
     <col min="5" max="5" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2897,7 +2897,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
@@ -3066,7 +3066,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="1:5" ht="26.4">
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>35</v>
@@ -3159,14 +3159,14 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.69921875" customWidth="1"/>
-    <col min="4" max="4" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3328,7 +3328,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="26.4">
+    <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>35</v>
@@ -3446,16 +3446,16 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="28.2">
+    <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>72</v>
@@ -3464,7 +3464,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" ht="26.4">
+    <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
     </row>
-    <row r="15" spans="1:5" ht="26.4">
+    <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>35</v>
@@ -3718,11 +3718,11 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="17.69921875" customWidth="1"/>
-    <col min="3" max="3" width="12.8984375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
   </cols>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\클래스_다이어그램\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B47152-3412-44F2-8A10-AFF5CAAF3680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E183F5-CE58-4A13-B10F-78976129B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="139">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1213,11 +1213,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/clths/search:/userIdx?season=&amp;category=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>존재하지 않는 유저임</t>
+  </si>
+  <si>
+    <t>/clths/search:/userIdx?season=&amp;category=&amp;bm=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1799,12 +1803,12 @@
   <dimension ref="B3:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
     <col min="5" max="5" width="24.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2018,7 +2022,7 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>125</v>
@@ -3750,10 +3754,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770B0E9-EE67-4ACA-97FB-13969A7B1B6E}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3774,9 +3778,9 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="38.25">
       <c r="A2" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
@@ -3956,164 +3960,178 @@
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" ht="17.25" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:6" ht="25.5">
+      <c r="C19" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="4"/>
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
+      <c r="B20" s="4"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" ht="25.5">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="12" t="b">
-        <v>1</v>
+      <c r="C22" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1000</v>
+        <v>36</v>
+      </c>
+      <c r="E23" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="14" t="s">
-        <v>50</v>
+        <v>32</v>
+      </c>
+      <c r="E24" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="13"/>
-      <c r="E25" s="13"/>
+      <c r="C25" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="31"/>
+      <c r="C26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="31" t="s">
-        <v>129</v>
+      <c r="C27" s="30" t="s">
+        <v>34</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="32">
-        <v>1</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D29" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E29" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="C29" s="13"/>
-      <c r="E29" s="13"/>
-    </row>
     <row r="30" spans="1:6">
-      <c r="B30" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="C30" s="13"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>3</v>
-      </c>
+      <c r="B31" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="13"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E32" s="23" t="s">
-        <v>111</v>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13">
+      <c r="C33" s="23"/>
+      <c r="D33" s="23">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13">
         <v>4000</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
-      <c r="D34" s="13">
+    <row r="35" spans="2:5">
+      <c r="D35" s="13">
         <v>2032</v>
       </c>
-      <c r="E34" t="s">
-        <v>137</v>
+      <c r="E35" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E183F5-CE58-4A13-B10F-78976129B7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF78A81-A128-4A8B-8A5C-7582D9F4B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="회원가입" sheetId="2" r:id="rId2"/>
-    <sheet name="로그인" sheetId="3" r:id="rId3"/>
-    <sheet name="회원정보조회" sheetId="4" r:id="rId4"/>
-    <sheet name="옷 검색" sheetId="11" r:id="rId5"/>
-    <sheet name="옷 수정" sheetId="10" r:id="rId6"/>
-    <sheet name="옷 삭제" sheetId="9" r:id="rId7"/>
-    <sheet name="옷 등록" sheetId="8" r:id="rId8"/>
-    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId9"/>
-    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId10"/>
-    <sheet name="전체 옷 조회" sheetId="5" r:id="rId11"/>
+    <sheet name="연결 테스트" sheetId="12" r:id="rId2"/>
+    <sheet name="회원가입" sheetId="2" r:id="rId3"/>
+    <sheet name="로그인" sheetId="3" r:id="rId4"/>
+    <sheet name="회원정보조회" sheetId="4" r:id="rId5"/>
+    <sheet name="옷 검색" sheetId="11" r:id="rId6"/>
+    <sheet name="옷 수정" sheetId="10" r:id="rId7"/>
+    <sheet name="옷 삭제" sheetId="9" r:id="rId8"/>
+    <sheet name="옷 등록" sheetId="8" r:id="rId9"/>
+    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId10"/>
+    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId11"/>
+    <sheet name="전체 옷 조회" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="147">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1216,11 +1217,61 @@
     <t>존재하지 않는 유저임</t>
   </si>
   <si>
-    <t>/clths/search:/userIdx?season=&amp;category=&amp;bm=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bm</t>
+    <t>/clths/search:/userIdx?season=&amp;category=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/display/:imgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/test/upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 출력 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 업로드 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">테스트 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susccess at ~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0. test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1347,7 +1398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1370,6 +1421,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1379,7 +1467,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1431,9 +1519,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1484,6 +1569,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1800,10 +1897,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B3:G19"/>
+  <dimension ref="B3:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1833,220 +1930,282 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="2">
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>97</v>
+        <v>139</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="18"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="2">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="F6" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="18"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="2">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="2">
-        <v>2.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="2">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="19"/>
+      <c r="B12" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="2">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2">
-        <v>2.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2">
-        <v>2.7</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G15" s="19"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="19" spans="4:4">
-      <c r="D19" s="17"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B12:E12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2055,6 +2214,311 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" ht="25.5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="C24" s="21"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="B25" s="23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="B26" s="13"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="13"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="13"/>
+      <c r="D28" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="D29" s="13">
+        <v>2032</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -2076,7 +2540,7 @@
       <c r="B1" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -2119,13 +2583,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2148,13 +2612,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2177,35 +2641,35 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
@@ -2219,26 +2683,26 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>1</v>
       </c>
     </row>
@@ -2261,13 +2725,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2328,7 +2792,7 @@
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D26" s="12" t="s">
@@ -2339,7 +2803,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="12" t="s">
@@ -2350,7 +2814,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>65</v>
       </c>
       <c r="D28" s="12" t="s">
@@ -2361,7 +2825,7 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>66</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -2372,7 +2836,7 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="12" t="s">
@@ -2383,27 +2847,27 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="13"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:5">
       <c r="B34" s="13"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23">
+      <c r="C34" s="22"/>
+      <c r="D34" s="22">
         <v>1000</v>
       </c>
-      <c r="E34" s="23" t="s">
+      <c r="E34" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2430,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -2449,10 +2913,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -2467,7 +2931,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -2485,7 +2949,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="26" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="12"/>
@@ -2495,13 +2959,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="12"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2514,7 +2978,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="26" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="12"/>
@@ -2524,26 +2988,26 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C11" s="12"/>
@@ -2553,26 +3017,26 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>1</v>
       </c>
     </row>
@@ -2585,7 +3049,7 @@
     </row>
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="26" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="12"/>
@@ -2595,13 +3059,13 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2662,7 +3126,7 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>61</v>
       </c>
       <c r="D22" s="12" t="s">
@@ -2673,7 +3137,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="12" t="s">
@@ -2684,29 +3148,29 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
-      <c r="C24" s="22"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="B25" s="24" t="s">
+      <c r="B25" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="C27" s="23"/>
-      <c r="D27" s="23">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22">
         <v>1000</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2734,11 +3198,284 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B385073-149F-4302-9EA6-580EFAC14519}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="14"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2991,27 +3728,27 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22">
         <v>1000</v>
       </c>
-      <c r="E27" s="23" t="s">
+      <c r="E27" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3078,12 +3815,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3304,7 +4041,7 @@
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D21" s="12" t="s">
@@ -3315,7 +4052,7 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C23" s="13"/>
@@ -3324,21 +4061,21 @@
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="13"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="13"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
         <v>1000</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3402,11 +4139,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
@@ -3669,7 +4406,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="13"/>
@@ -3678,21 +4415,21 @@
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="13"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21" t="s">
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="13"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22">
         <v>1000</v>
       </c>
-      <c r="E28" s="23" t="s">
+      <c r="E28" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3752,12 +4489,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770B0E9-EE67-4ACA-97FB-13969A7B1B6E}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3774,11 +4511,11 @@
       <c r="B1" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="38.25">
+    <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="7" t="s">
         <v>137</v>
       </c>
@@ -3817,13 +4554,13 @@
     <row r="6" spans="1:6">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3846,13 +4583,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3875,35 +4612,35 @@
     <row r="12" spans="1:6">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
@@ -3917,220 +4654,206 @@
     <row r="16" spans="1:6">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="28" t="s">
+      <c r="F16" s="27" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="E17" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F17" s="29"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6" ht="27.75" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="29" t="s">
+      <c r="E18" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25" customHeight="1">
+    <row r="19" spans="1:6">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="33"/>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" ht="25.5">
       <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:6" ht="25.5">
+    <row r="21" spans="1:6">
       <c r="A21" s="4"/>
-      <c r="B21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>29</v>
+      <c r="C22" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="12" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="12" t="b">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="12">
-        <v>1000</v>
+        <v>31</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>50</v>
-      </c>
+      <c r="C25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="13"/>
-      <c r="E26" s="13"/>
+      <c r="C26" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="31"/>
+        <v>129</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="32">
-        <v>1</v>
+      <c r="C28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="31" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>131</v>
-      </c>
+      <c r="C29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:6">
+      <c r="B30" s="23" t="s">
+        <v>104</v>
+      </c>
       <c r="C30" s="13"/>
       <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="B31" s="24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="E31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" s="13"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>3</v>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="13"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>111</v>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
       <c r="D34" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="D35" s="13">
         <v>2032</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E34" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4140,7 +4863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -4162,7 +4885,7 @@
       <c r="B1" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -4205,13 +4928,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4234,52 +4957,52 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="29" t="s">
+      <c r="D10" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="29" t="b">
+      <c r="E10" s="28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E11" s="29" t="s">
+      <c r="E11" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="28" t="s">
         <v>69</v>
       </c>
     </row>
@@ -4302,35 +5025,35 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
@@ -4344,26 +5067,26 @@
     <row r="19" spans="1:5">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="28">
         <v>1</v>
       </c>
     </row>
@@ -4386,13 +5109,13 @@
     <row r="23" spans="1:5">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4453,27 +5176,27 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="13"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21" t="s">
+      <c r="C31" s="20"/>
+      <c r="D31" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="13"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23">
+      <c r="C32" s="22"/>
+      <c r="D32" s="22">
         <v>1000</v>
       </c>
-      <c r="E32" s="23" t="s">
+      <c r="E32" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4524,12 +5247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection sqref="A1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4546,7 +5269,7 @@
       <c r="B1" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -4589,13 +5312,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4618,13 +5341,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4647,35 +5370,35 @@
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="D13" s="29" t="s">
+      <c r="D13" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
@@ -4689,35 +5412,35 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
     </row>
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
@@ -4731,13 +5454,13 @@
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4798,27 +5521,27 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="13"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="B29" s="13"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23">
+      <c r="C29" s="22"/>
+      <c r="D29" s="22">
         <v>1000</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4845,7 +5568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -4868,7 +5591,7 @@
       <c r="B1" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="26"/>
+      <c r="C1" s="25"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
@@ -4911,13 +5634,13 @@
     <row r="6" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4940,13 +5663,13 @@
     <row r="9" spans="1:5">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5021,13 +5744,13 @@
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5090,31 +5813,31 @@
     <row r="22" spans="1:5">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="22"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="12"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="B24" s="13"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="13"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23">
+      <c r="C25" s="22"/>
+      <c r="D25" s="22">
         <v>1000</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5172,309 +5895,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5">
-      <c r="A2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="C23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="C24" s="22"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="13"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="13"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="13"/>
-      <c r="D28" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" s="13">
-        <v>2032</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF78A81-A128-4A8B-8A5C-7582D9F4B9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88FF4A6-705A-4589-B136-775378A6E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" tabRatio="845" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" firstSheet="2" activeTab="5" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="146">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -128,10 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/clths</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>delete</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,6 +251,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -263,7 +271,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>로그인</t>
+      <t>회원정보조회</t>
     </r>
     <r>
       <rPr>
@@ -277,10 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GET</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -298,16 +302,56 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>userIdx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>object</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+      <t>id</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>numOfClth</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -319,7 +363,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>회원정보조회</t>
+      <t>ㄴ</t>
     </r>
     <r>
       <rPr>
@@ -327,430 +371,296 @@
         <color theme="1"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>clthIdx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clthImgUrl</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/img1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">개별 옷 정보 조회 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>bookmark</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>category</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㄴ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>season</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"spring"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">즐겨찾기된 옷 조회 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 등록에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">옷 삭제 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 삭제에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">옷 수정 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PATCH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>옷 수정에 성공했습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전체 옷 조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> api</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
+    <t>Path Variable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clthIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>season</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>numOfClth</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>clthIdx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>clthImgUrl</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/img1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">개별 옷 정보 조회 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>api</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>bookmark</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>category</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ㄴ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>season</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"spring"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">즐겨찾기된 옷 조회 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>api</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">옷 등록 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>api</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷 등록에 성공했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">옷 삭제 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>api</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷 삭제에 성공했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">옷 수정 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>api</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PATCH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>옷 수정에 성공했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>전체 옷 조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> api</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Path Variable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Example</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clthIdx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bookmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>season</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
       <t>셔츠"</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>clthImgUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>티"</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"fall"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1272,6 +1182,47 @@
   </si>
   <si>
     <t>0. test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄴuserIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/clths/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"티"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"가을"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>봄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1279,7 +1230,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,6 +1309,31 @@
       <name val="돋움"/>
       <family val="2"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1467,7 +1443,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1567,6 +1543,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1579,8 +1558,47 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1899,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
   <dimension ref="B3:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1923,19 +1941,19 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -1947,13 +1965,13 @@
         <v>7</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G5" s="18"/>
     </row>
@@ -1965,13 +1983,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G6" s="18"/>
     </row>
@@ -1983,23 +2001,23 @@
         <v>5</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -2011,13 +2029,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G9" s="18"/>
     </row>
@@ -2029,13 +2047,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G10" s="18"/>
     </row>
@@ -2047,23 +2065,23 @@
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
@@ -2081,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G13" s="18"/>
     </row>
@@ -2099,7 +2117,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G14" s="18"/>
     </row>
@@ -2111,13 +2129,13 @@
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G15" s="18"/>
     </row>
@@ -2129,13 +2147,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G16" s="18"/>
     </row>
@@ -2144,16 +2162,16 @@
         <v>2.5</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G17" s="18"/>
     </row>
@@ -2162,16 +2180,16 @@
         <v>2.6</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G18" s="18"/>
     </row>
@@ -2183,13 +2201,13 @@
         <v>7</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G19" s="18"/>
     </row>
@@ -2233,7 +2251,7 @@
     <row r="1" spans="1:5" ht="26.25">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -2251,10 +2269,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2269,7 +2287,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2279,13 +2297,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2298,7 +2316,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2308,13 +2326,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2327,7 +2345,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2337,23 +2355,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -2369,7 +2387,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2379,23 +2397,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -2405,10 +2423,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -2418,13 +2436,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2435,10 +2453,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -2446,10 +2464,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -2457,13 +2475,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2472,14 +2490,14 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="13"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>3</v>
@@ -2492,7 +2510,7 @@
         <v>1000</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2501,7 +2519,7 @@
         <v>4000</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2509,7 +2527,7 @@
         <v>2032</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2538,7 +2556,7 @@
     <row r="1" spans="1:5" ht="29.25" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -2556,10 +2574,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2574,7 +2592,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2584,13 +2602,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2603,7 +2621,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2613,13 +2631,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2632,7 +2650,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2642,23 +2660,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -2674,7 +2692,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2684,23 +2702,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -2716,7 +2734,7 @@
     <row r="19" spans="1:5" ht="25.5" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -2726,23 +2744,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -2752,10 +2770,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -2765,13 +2783,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2782,10 +2800,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E25" s="14"/>
     </row>
@@ -2793,10 +2811,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E26" s="13">
         <v>1</v>
@@ -2804,21 +2822,21 @@
     </row>
     <row r="27" spans="1:5" ht="17.25" customHeight="1">
       <c r="C27" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="C28" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E28" s="13" t="b">
         <v>1</v>
@@ -2826,36 +2844,36 @@
     </row>
     <row r="29" spans="1:5">
       <c r="C29" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="C30" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="2:5">
       <c r="B33" s="13"/>
       <c r="C33" s="20"/>
       <c r="D33" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>3</v>
@@ -2868,7 +2886,7 @@
         <v>1000</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -2877,7 +2895,7 @@
         <v>4000</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -2885,7 +2903,7 @@
         <v>3017</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2914,7 +2932,7 @@
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="24" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -2932,10 +2950,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -2950,7 +2968,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2960,13 +2978,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="12"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2979,7 +2997,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2989,13 +3007,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="12"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3008,7 +3026,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3018,23 +3036,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="12"/>
       <c r="C12" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="12"/>
       <c r="C13" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -3050,7 +3068,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3060,23 +3078,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="12"/>
       <c r="C16" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="27" t="s">
+      <c r="E16" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -3086,10 +3104,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -3099,13 +3117,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3116,10 +3134,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -3127,10 +3145,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="12"/>
       <c r="C22" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -3138,13 +3156,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18" customHeight="1">
@@ -3153,13 +3171,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="C26" s="20"/>
       <c r="D26" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>3</v>
@@ -3171,7 +3189,7 @@
         <v>1000</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3179,7 +3197,7 @@
         <v>4000</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3187,7 +3205,7 @@
         <v>2032</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3235,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -3225,7 +3243,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
@@ -3235,10 +3253,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -3253,7 +3271,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -3263,13 +3281,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3282,7 +3300,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -3292,13 +3310,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3311,7 +3329,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -3321,13 +3339,13 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3340,7 +3358,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3350,13 +3368,13 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3369,7 +3387,7 @@
     <row r="17" spans="1:7" ht="25.5">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -3379,13 +3397,13 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="E18" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3393,10 +3411,10 @@
       <c r="B19" s="4"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3437,32 +3455,32 @@
       <c r="C25" s="22"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="22"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3475,7 +3493,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E20"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3490,7 +3508,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -3498,7 +3516,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -3508,10 +3526,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -3526,7 +3544,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -3536,13 +3554,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3555,7 +3573,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -3565,65 +3583,65 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3643,7 +3661,7 @@
     <row r="16" spans="1:5" ht="25.5">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -3653,23 +3671,23 @@
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="E18" s="12" t="b">
         <v>1</v>
@@ -3679,10 +3697,10 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="12">
         <v>1000</v>
@@ -3692,13 +3710,13 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3710,13 +3728,13 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3729,14 +3747,14 @@
     <row r="25" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="19" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="4"/>
       <c r="C26" s="20"/>
       <c r="D26" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E26" s="20" t="s">
         <v>3</v>
@@ -3749,7 +3767,7 @@
         <v>1000</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3757,7 +3775,7 @@
         <v>4000</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3767,7 +3785,7 @@
         <v>2021</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3777,7 +3795,7 @@
         <v>2026</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3787,7 +3805,7 @@
         <v>2027</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3796,7 +3814,7 @@
         <v>2030</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33" spans="3:5">
@@ -3805,7 +3823,7 @@
         <v>2025</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3838,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3833,287 +3851,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38"/>
+      <c r="B3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38"/>
+      <c r="B5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+    </row>
+    <row r="14" spans="1:5" ht="27">
+      <c r="A14" s="38"/>
+      <c r="B14" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" ht="17.25" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="25.5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="E20" s="44"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="46"/>
+      <c r="B23" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="45"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="46"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="46"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="13"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="E25" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="13"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>111</v>
-      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13">
+      <c r="A26" s="46"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="45">
         <v>4000</v>
       </c>
-      <c r="E26" s="13" t="s">
-        <v>112</v>
+      <c r="E26" s="45" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13">
+      <c r="A27" s="46"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45">
         <v>2031</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>113</v>
+      <c r="E27" s="45" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13">
+      <c r="A28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45">
         <v>2020</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>114</v>
+      <c r="E28" s="45" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="13"/>
@@ -4143,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4159,7 +4191,7 @@
     <row r="1" spans="1:5" ht="18" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="4"/>
@@ -4167,7 +4199,7 @@
     </row>
     <row r="2" spans="1:5" ht="18" customHeight="1">
       <c r="A2" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -4177,10 +4209,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -4195,7 +4227,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -4205,13 +4237,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4224,7 +4256,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -4234,13 +4266,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4253,7 +4285,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -4263,23 +4295,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="11">
         <v>1</v>
@@ -4295,7 +4327,7 @@
     <row r="15" spans="1:5" ht="25.5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -4305,23 +4337,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E17" s="12" t="b">
         <v>1</v>
@@ -4331,10 +4363,10 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E18" s="12">
         <v>1000</v>
@@ -4344,13 +4376,13 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4363,10 +4395,10 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E21" s="14"/>
     </row>
@@ -4374,10 +4406,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="13">
         <v>1</v>
@@ -4385,21 +4417,21 @@
     </row>
     <row r="23" spans="1:5">
       <c r="C23" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="C24" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E24" s="13">
         <v>5</v>
@@ -4407,7 +4439,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="B26" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -4417,7 +4449,7 @@
       <c r="B27" s="13"/>
       <c r="C27" s="20"/>
       <c r="D27" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E27" s="20" t="s">
         <v>3</v>
@@ -4430,7 +4462,7 @@
         <v>1000</v>
       </c>
       <c r="E28" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4440,7 +4472,7 @@
         <v>4000</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4450,7 +4482,7 @@
         <v>2032</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4493,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770B0E9-EE67-4ACA-97FB-13969A7B1B6E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4509,7 +4541,7 @@
     <row r="1" spans="1:6">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -4517,7 +4549,7 @@
     </row>
     <row r="2" spans="1:6" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
@@ -4527,10 +4559,10 @@
     <row r="3" spans="1:6">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4545,7 +4577,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4555,13 +4587,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4574,7 +4606,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4584,13 +4616,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4603,7 +4635,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -4613,23 +4645,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -4645,7 +4677,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -4655,29 +4687,29 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F17" s="28"/>
     </row>
@@ -4685,16 +4717,16 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4707,7 +4739,7 @@
     <row r="20" spans="1:6" ht="25.5">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -4717,23 +4749,23 @@
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="E21" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E22" s="12" t="b">
         <v>1</v>
@@ -4743,10 +4775,10 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="12">
         <v>1000</v>
@@ -4756,13 +4788,13 @@
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4775,10 +4807,10 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E26" s="30"/>
     </row>
@@ -4786,10 +4818,10 @@
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="30" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="31">
         <v>1</v>
@@ -4799,13 +4831,13 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="30" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4814,7 +4846,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C30" s="13"/>
       <c r="E30" s="13"/>
@@ -4823,7 +4855,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>3</v>
@@ -4836,7 +4868,7 @@
         <v>1000</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -4846,7 +4878,7 @@
         <v>4000</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -4854,7 +4886,7 @@
         <v>2032</v>
       </c>
       <c r="E34" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -4868,7 +4900,7 @@
   <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E33"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4883,7 +4915,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -4891,7 +4923,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
@@ -4901,10 +4933,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -4919,7 +4951,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -4929,13 +4961,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4948,7 +4980,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -4958,23 +4990,23 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="28" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="28" t="b">
         <v>1</v>
@@ -4984,26 +5016,26 @@
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="28" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="28" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5016,7 +5048,7 @@
     <row r="14" spans="1:5">
       <c r="A14" s="4"/>
       <c r="B14" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -5026,23 +5058,23 @@
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="28">
         <v>1</v>
@@ -5058,7 +5090,7 @@
     <row r="18" spans="1:5">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -5068,23 +5100,23 @@
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" s="28">
         <v>1</v>
@@ -5100,7 +5132,7 @@
     <row r="22" spans="1:5" ht="25.5">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -5110,23 +5142,23 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="E23" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E24" s="12" t="b">
         <v>1</v>
@@ -5136,10 +5168,10 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="12">
         <v>1000</v>
@@ -5149,13 +5181,13 @@
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5166,25 +5198,25 @@
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="B31" s="13"/>
       <c r="C31" s="20"/>
       <c r="D31" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E31" s="20" t="s">
         <v>3</v>
@@ -5197,7 +5229,7 @@
         <v>1000</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="2:5">
@@ -5206,7 +5238,7 @@
         <v>4000</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:5">
@@ -5214,7 +5246,7 @@
         <v>2036</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:5">
@@ -5222,7 +5254,7 @@
         <v>2034</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -5230,7 +5262,7 @@
         <v>2034</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -5238,7 +5270,7 @@
         <v>3015</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -5267,7 +5299,7 @@
     <row r="1" spans="1:5">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="12"/>
@@ -5275,7 +5307,7 @@
     </row>
     <row r="2" spans="1:5" ht="25.5">
       <c r="A2" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="12"/>
@@ -5285,10 +5317,10 @@
     <row r="3" spans="1:5">
       <c r="A3" s="4"/>
       <c r="B3" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -5303,7 +5335,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -5313,13 +5345,13 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5332,7 +5364,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -5342,13 +5374,13 @@
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5361,7 +5393,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -5371,23 +5403,23 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="28" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E13" s="28">
         <v>1</v>
@@ -5403,7 +5435,7 @@
     <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -5413,23 +5445,23 @@
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D16" s="27" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="28" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="28">
         <v>1</v>
@@ -5445,7 +5477,7 @@
     <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -5455,23 +5487,23 @@
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="E20" s="27" t="s">
         <v>28</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="E21" s="12" t="b">
         <v>1</v>
@@ -5481,10 +5513,10 @@
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="12">
         <v>1000</v>
@@ -5494,13 +5526,13 @@
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5511,25 +5543,25 @@
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" s="23" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="B28" s="13"/>
       <c r="C28" s="20"/>
       <c r="D28" s="20" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E28" s="20" t="s">
         <v>3</v>
@@ -5542,7 +5574,7 @@
         <v>1000</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5551,7 +5583,7 @@
         <v>4000</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -5559,7 +5591,7 @@
         <v>3016</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5570,10 +5602,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5587,308 +5619,398 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="A1" s="38"/>
+      <c r="B1" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="A2" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="27" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="38"/>
+      <c r="B8" s="42" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="27" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="E9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="27" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>63</v>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="44" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="12" t="b">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="44" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>91</v>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>92</v>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-    </row>
-    <row r="15" spans="1:5" ht="25.5">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>29</v>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+    </row>
+    <row r="19" spans="1:5" ht="27">
+      <c r="A19" s="38"/>
+      <c r="B19" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="E21" s="44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="12" t="s">
+      <c r="D22" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="46"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="46"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="49">
         <v>1000</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="B23" s="23" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="B24" s="13"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20" t="s">
+      <c r="E29" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="B25" s="13"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="B26" s="13"/>
-      <c r="D26" s="13">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="46"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45">
         <v>4000</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E30" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45">
+        <v>2033</v>
+      </c>
+      <c r="E31" s="45" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="D27" s="13">
-        <v>2033</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="D28" s="13">
+    <row r="32" spans="1:5">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45">
         <v>2036</v>
       </c>
-      <c r="E28" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="D29" s="13">
+      <c r="E32" s="45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45">
         <v>2034</v>
       </c>
-      <c r="E29" s="13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="D30" s="13">
+      <c r="E33" s="45" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="45"/>
+      <c r="D34" s="45">
         <v>2034</v>
       </c>
-      <c r="E30" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31" s="13">
+      <c r="E34" s="45" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45">
         <v>2032</v>
       </c>
-      <c r="E31" s="13" t="s">
-        <v>122</v>
-      </c>
+      <c r="E35" s="45" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="46"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="45"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="46"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="45"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="46"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="45"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88FF4A6-705A-4589-B136-775378A6E5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E448F7-5337-4703-93EB-77AD88BC4B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5880" windowWidth="16440" windowHeight="28320" tabRatio="845" firstSheet="2" activeTab="5" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="28590" yWindow="-2295" windowWidth="16410" windowHeight="11295" tabRatio="845" activeTab="3" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="연결 테스트" sheetId="12" r:id="rId2"/>
-    <sheet name="회원가입" sheetId="2" r:id="rId3"/>
-    <sheet name="로그인" sheetId="3" r:id="rId4"/>
-    <sheet name="회원정보조회" sheetId="4" r:id="rId5"/>
-    <sheet name="옷 검색" sheetId="11" r:id="rId6"/>
-    <sheet name="옷 수정" sheetId="10" r:id="rId7"/>
-    <sheet name="옷 삭제" sheetId="9" r:id="rId8"/>
-    <sheet name="옷 등록" sheetId="8" r:id="rId9"/>
-    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId10"/>
-    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId11"/>
-    <sheet name="전체 옷 조회" sheetId="5" r:id="rId12"/>
+    <sheet name="이미지 출력" sheetId="13" r:id="rId3"/>
+    <sheet name="이미지 업로드" sheetId="14" r:id="rId4"/>
+    <sheet name="회원가입" sheetId="2" r:id="rId5"/>
+    <sheet name="로그인" sheetId="3" r:id="rId6"/>
+    <sheet name="회원정보조회" sheetId="4" r:id="rId7"/>
+    <sheet name="옷 검색" sheetId="11" r:id="rId8"/>
+    <sheet name="옷 수정" sheetId="10" r:id="rId9"/>
+    <sheet name="옷 삭제" sheetId="9" r:id="rId10"/>
+    <sheet name="옷 등록" sheetId="8" r:id="rId11"/>
+    <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId12"/>
+    <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId13"/>
+    <sheet name="전체 옷 조회" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="155">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1177,10 +1179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Susccess at ~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0. test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1222,6 +1220,338 @@
         <family val="2"/>
       </rPr>
       <t>"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Success Test at hana-umc.shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이미지 출력 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testImg_gn.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이미지 업로드 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1656344304281hydrangea_2.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>따로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장해둬야합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안그러면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>날아가요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아니면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>때</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> imgUrl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이거</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넣으시면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>돼요</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1546,18 +1876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1600,6 +1918,18 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1616,6 +1946,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>555745</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>113728</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{916DA375-3EEC-6612-023E-7213E1CE3F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="555745" y="5057775"/>
+          <a:ext cx="6111183" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1948,12 +2327,12 @@
       </c>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
@@ -2012,12 +2391,12 @@
       <c r="G7" s="18"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
@@ -2076,12 +2455,12 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
@@ -2232,6 +2611,746 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="22.5" customHeight="1">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="B27" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="B28" s="13"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="B29" s="13"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="13"/>
+      <c r="D30" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="D31" s="13">
+        <v>3016</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="13" customWidth="1"/>
+    <col min="5" max="5" width="27" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="46"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="34"/>
+      <c r="B3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="34"/>
+      <c r="B8" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+    </row>
+    <row r="19" spans="1:5" ht="27">
+      <c r="A19" s="34"/>
+      <c r="B19" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45">
+        <v>1000</v>
+      </c>
+      <c r="E29" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="42"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41">
+        <v>4000</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41">
+        <v>2033</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41">
+        <v>2036</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41">
+        <v>2034</v>
+      </c>
+      <c r="E33" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41">
+        <v>2034</v>
+      </c>
+      <c r="E34" s="41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41">
+        <v>2032</v>
+      </c>
+      <c r="E35" s="41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B66A8E99-6141-4F4A-B9F1-E9D599435FE8}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -2536,7 +3655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0BC3516-FAF4-4838-A377-AC78393ECC6D}">
   <dimension ref="A1:E36"/>
   <sheetViews>
@@ -2912,7 +4031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -3220,7 +4339,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3229,7 +4348,7 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3414,7 +4533,7 @@
         <v>40</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3489,6 +4608,579 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDF11B6-F8AF-4C57-84E7-49FE7D0D8140}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D46819-518A-454A-BDBC-920885D53935}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="6" max="6" width="28.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4"/>
+      <c r="B1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="40.5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="14"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B33423-CF84-4014-81E0-161931DC32C0}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -3833,7 +5525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -3851,301 +5543,301 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="34"/>
+      <c r="B3" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="43" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="34"/>
+      <c r="B8" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="43" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="43" t="s">
+      <c r="D9" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="43" t="s">
+      <c r="E9" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38" t="s">
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="34" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38" t="s">
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="34" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" ht="27">
-      <c r="A14" s="38"/>
-      <c r="B14" s="42" t="s">
+      <c r="A14" s="34"/>
+      <c r="B14" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="43" t="s">
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="43" t="s">
+      <c r="D15" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38" t="s">
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="44" t="b">
+      <c r="E16" s="40" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="44" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="40">
         <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="44" t="s">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="40" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="44" t="s">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="44"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="44" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="45">
+      <c r="E21" s="41">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="45"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="46"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48" t="s">
+      <c r="A24" s="42"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="46"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49">
+      <c r="A25" s="42"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45">
         <v>1000</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="45" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="46"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="45">
+      <c r="A26" s="42"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41">
         <v>4000</v>
       </c>
-      <c r="E26" s="45" t="s">
+      <c r="E26" s="41" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="46"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45">
+      <c r="A27" s="42"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41">
         <v>2031</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="41" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="46"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45">
+      <c r="A28" s="42"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41">
         <v>2020</v>
       </c>
-      <c r="E28" s="45" t="s">
+      <c r="E28" s="41" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="46"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
     </row>
     <row r="30" spans="1:5">
       <c r="B30" s="13"/>
@@ -4171,7 +5863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC55FE7C-3CF7-440A-9A78-AC7E47E50271}">
   <dimension ref="A1:E35"/>
   <sheetViews>
@@ -4521,12 +6213,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B770B0E9-EE67-4ACA-97FB-13969A7B1B6E}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4895,7 +6587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA27015-2419-45B9-9BA8-0973DD1BC647}">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -5035,7 +6727,7 @@
         <v>40</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5277,744 +6969,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:E30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4"/>
-      <c r="B1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="25.5">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:5" ht="25.5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="B27" s="23" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="B28" s="13"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="B29" s="13"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="13"/>
-      <c r="D30" s="13">
-        <v>4000</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="D31" s="13">
-        <v>3016</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69A8CD0-080C-46BE-B1FE-A13478AFC1FE}">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="27" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="41" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="42" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="38"/>
-      <c r="B8" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="44" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="44" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:5" ht="27">
-      <c r="A19" s="38"/>
-      <c r="B19" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="44" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="44">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="44" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="45"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="46"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="46"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49">
-        <v>1000</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="46"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45">
-        <v>4000</v>
-      </c>
-      <c r="E30" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45">
-        <v>2033</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45">
-        <v>2036</v>
-      </c>
-      <c r="E32" s="45" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45">
-        <v>2034</v>
-      </c>
-      <c r="E33" s="45" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45">
-        <v>2034</v>
-      </c>
-      <c r="E34" s="45" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45">
-        <v>2032</v>
-      </c>
-      <c r="E35" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="46"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="45"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="46"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="46"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="45"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="45"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/server/api명세서.xlsx
+++ b/server/api명세서.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Choi ga na\Desktop\SE_7\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonsh\OneDrive\문서\GitHub\SE_7\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E448F7-5337-4703-93EB-77AD88BC4B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F511F8AA-8821-4413-8C30-388065ACE1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28590" yWindow="-2295" windowWidth="16410" windowHeight="11295" tabRatio="845" activeTab="3" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" tabRatio="845" firstSheet="3" activeTab="14" xr2:uid="{52A15CCD-2EDE-44D4-B799-FD47B3AFB358}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="즐겨찾기된 옷 조회" sheetId="7" r:id="rId12"/>
     <sheet name="개별 옷 정보 조회" sheetId="6" r:id="rId13"/>
     <sheet name="전체 옷 조회" sheetId="5" r:id="rId14"/>
+    <sheet name="회원탈퇴" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="161">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1553,6 +1554,48 @@
       </rPr>
       <t>돼요</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/delete/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴 api</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/users/deleteUser/:userIdx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DELETE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">회원탈퇴 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>api</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴가 완료되었습니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2294,16 +2337,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BEABCF-10F7-4A44-95AC-0B5209DD3165}">
-  <dimension ref="B3:G20"/>
+  <dimension ref="B3:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="46.125" customWidth="1"/>
-    <col min="5" max="5" width="24.625" customWidth="1"/>
+    <col min="4" max="4" width="46.09765625" customWidth="1"/>
+    <col min="5" max="5" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:7">
@@ -2455,45 +2498,45 @@
       <c r="G11" s="18"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G13" s="18"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="2">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>93</v>
@@ -2502,16 +2545,16 @@
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="2">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="17" t="s">
         <v>93</v>
@@ -2520,16 +2563,16 @@
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="2">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>93</v>
@@ -2538,16 +2581,16 @@
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="2">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>93</v>
@@ -2556,16 +2599,16 @@
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>94</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F18" s="17" t="s">
         <v>93</v>
@@ -2574,16 +2617,16 @@
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="2">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="F19" s="17" t="s">
         <v>93</v>
@@ -2591,18 +2634,36 @@
       <c r="G19" s="18"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="B20" s="2">
+        <v>2.7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2614,17 +2675,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BEEA23-82FB-43F7-B823-B5D6F4D0C02F}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:E30"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.8984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2636,7 +2697,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +2866,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
     </row>
-    <row r="19" spans="1:5" ht="25.5">
+    <row r="19" spans="1:5" ht="26.4">
       <c r="A19" s="4"/>
       <c r="B19" s="8" t="s">
         <v>32</v>
@@ -2939,14 +3000,14 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.3984375" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" style="13" customWidth="1"/>
     <col min="5" max="5" width="27" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3137,7 +3198,7 @@
       <c r="D18" s="40"/>
       <c r="E18" s="40"/>
     </row>
-    <row r="19" spans="1:5" ht="27">
+    <row r="19" spans="1:5" ht="31.2">
       <c r="A19" s="34"/>
       <c r="B19" s="38" t="s">
         <v>32</v>
@@ -3358,16 +3419,16 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.09765625" style="13" customWidth="1"/>
     <col min="5" max="5" width="27" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25">
+    <row r="1" spans="1:5" ht="28.2">
       <c r="A1" s="4"/>
       <c r="B1" s="6" t="s">
         <v>67</v>
@@ -3376,7 +3437,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>19</v>
       </c>
@@ -3503,7 +3564,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="28"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>32</v>
@@ -3663,11 +3724,11 @@
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="12.875" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
+    <col min="2" max="2" width="15.09765625" customWidth="1"/>
+    <col min="3" max="3" width="12.8984375" style="13" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="13" customWidth="1"/>
     <col min="5" max="5" width="26.5" style="13" customWidth="1"/>
   </cols>
@@ -4035,17 +4096,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFA5DCB-1B88-4FFB-8B45-74DF246FB3BF}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="16.625" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="11.75" style="13" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" customHeight="1">
@@ -4184,7 +4245,7 @@
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="26" t="s">
         <v>32</v>
@@ -4324,6 +4385,276 @@
         <v>2032</v>
       </c>
       <c r="E29" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0198858-34BE-423B-A9E2-4BF78EF8B914}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="23.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.69921875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="29.3984375" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" ht="16.5" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4"/>
+      <c r="B3" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="26.4">
+      <c r="A14" s="4"/>
+      <c r="B14" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19.5" customHeight="1">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="B21" s="23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="C23" s="22"/>
+      <c r="D23" s="22">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="D24" s="13">
+        <v>4000</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="13">
+        <v>2032</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4342,13 +4673,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="29.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4503,7 +4834,7 @@
       <c r="D16" s="28"/>
       <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5">
+    <row r="17" spans="1:7" ht="26.4">
       <c r="A17" s="4"/>
       <c r="B17" s="8" t="s">
         <v>32</v>
@@ -4615,13 +4946,13 @@
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="29.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -4789,7 +5120,7 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5">
+    <row r="18" spans="1:7" ht="26.4">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>32</v>
@@ -4893,18 +5224,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08D46819-518A-454A-BDBC-920885D53935}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
-    <col min="2" max="2" width="14.875" customWidth="1"/>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="29.125" customWidth="1"/>
-    <col min="6" max="6" width="28.25" customWidth="1"/>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" customWidth="1"/>
+    <col min="3" max="3" width="11.09765625" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" customWidth="1"/>
+    <col min="5" max="5" width="29.09765625" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5070,7 +5401,7 @@
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5">
+    <row r="18" spans="1:7" ht="26.4">
       <c r="A18" s="4"/>
       <c r="B18" s="8" t="s">
         <v>32</v>
@@ -5092,7 +5423,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="40.5">
+    <row r="20" spans="1:7" ht="46.8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="12" t="s">
@@ -5188,11 +5519,11 @@
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="34.5" customWidth="1"/>
   </cols>
@@ -5350,7 +5681,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="25.5">
+    <row r="16" spans="1:5" ht="26.4">
       <c r="A16" s="4"/>
       <c r="B16" s="8" t="s">
         <v>32</v>
@@ -5529,17 +5860,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7F7D641-59C2-47A1-A569-B769F632E615}">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="10.375" customWidth="1"/>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="34.625" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.69921875" customWidth="1"/>
+    <col min="3" max="3" width="14.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.3984375" customWidth="1"/>
+    <col min="5" max="5" width="34.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" customHeight="1">
@@ -5669,7 +6000,7 @@
       <c r="D13" s="34"/>
       <c r="E13" s="34"/>
     </row>
-    <row r="14" spans="1:5" ht="27">
+    <row r="14" spans="1:5" ht="31.2">
       <c r="A14" s="34"/>
       <c r="B14" s="38" t="s">
         <v>32</v>
@@ -5871,12 +6202,12 @@
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="11.75" customWidth="1"/>
-    <col min="2" max="2" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="11.69921875" customWidth="1"/>
+    <col min="2" max="2" width="14.3984375" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="4" max="4" width="12.19921875" customWidth="1"/>
     <col min="5" max="5" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6016,7 +6347,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="25.5">
+    <row r="15" spans="1:5" ht="26.4">
       <c r="A15" s="4"/>
       <c r="B15" s="8" t="s">
         <v>32</v>
@@ -6221,12 +6552,12 @@
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="24.875" customWidth="1"/>
+    <col min="1" max="1" width="17.09765625" customWidth="1"/>
+    <col min="2" max="3" width="12.69921875" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="24.8984375" customWidth="1"/>
     <col min="6" max="6" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6239,7 +6570,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:6" ht="25.5">
+    <row r="2" spans="1:6" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>131</v>
       </c>
@@ -6428,7 +6759,7 @@
       <c r="D19" s="12"/>
       <c r="E19" s="12"/>
     </row>
-    <row r="20" spans="1:6" ht="25.5">
+    <row r="20" spans="1:6" ht="26.4">
       <c r="A20" s="4"/>
       <c r="B20" s="8" t="s">
         <v>32</v>
@@ -6595,13 +6926,13 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="30.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="30.19921875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6613,7 +6944,7 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="25.5">
+    <row r="2" spans="1:5" ht="26.4">
       <c r="A2" s="7" t="s">
         <v>94</v>
       </c>
@@ -6821,7 +7152,7 @@
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" ht="25.5">
+    <row r="22" spans="1:5" ht="26.4">
       <c r="A22" s="4"/>
       <c r="B22" s="8" t="s">
         <v>32</v>
